--- a/Assignment 3/Resultaten.xlsx
+++ b/Assignment 3/Resultaten.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9552" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="Easy resultaten" sheetId="3" r:id="rId1"/>
+    <sheet name="Medium resultaten" sheetId="4" r:id="rId2"/>
+    <sheet name="Hard resultaten" sheetId="2" r:id="rId3"/>
+    <sheet name="INSANE resultaten" sheetId="5" r:id="rId4"/>
+    <sheet name="Trims resultaten" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="42">
   <si>
     <t>Easy (10 ants, 100 pheromones, 0.1 evaporation, GEEN trims)</t>
   </si>
@@ -54,6 +56,9 @@
     <t>Hard (20 ants, 800 pheromones, 0.1 evaporation, trims)</t>
   </si>
   <si>
+    <t>Hard (5 ants, 800 pheromones, 0.1 evaporation, trims)</t>
+  </si>
+  <si>
     <t>Tijd (s)</t>
   </si>
   <si>
@@ -63,10 +68,82 @@
     <t>Hard (20 ants, 100 pheromones, 0.1 evaporation, trims)</t>
   </si>
   <si>
-    <t>Hard (20 ants, 500 pheromones, 0.1 evaporation, trims)</t>
-  </si>
-  <si>
-    <t>Hard (20 ants, 1000 pheromones, 0.1 evaporation, trims)</t>
+    <t>Hard (10 ants, 800 pheromones, 0.1 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>NO CONVERGENCE</t>
+  </si>
+  <si>
+    <t>Hard (20 ants, 400 pheromones, 0.1 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Hard (2 ants, 800 pheromones, 0.1 evaporation, trims</t>
+  </si>
+  <si>
+    <t>Hard (20 ants, 1200 pheromones, 0.1 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Hard (20 ants, 800 pheromones, 0.05 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Hard (20 ants, 800 pheromones, 0.2 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Hard (20 ants, 800 pheromones, 0.4 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Easy (10 ants, 100 pheromones, 0.1 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Medium (20 ants, 300 pheromones, 0.1 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Medium (10 ants, 300 pheromones, 0.1 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Medium (50 ants, 300 pheromones, 0.1 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Medium (5 ants, 300 pheromones, 0.1 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Medium (10 ants, 100 pheromones, 0.1 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Medium (10 ants, 500 pheromones, 0.1 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Medium (10 ants, 300 pheromones, 0.05 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Medium (10 ants, 300 pheromones, 0.2 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>Medium (10 ants, 300 pheromones, 0.4 evaporation, trims)</t>
+  </si>
+  <si>
+    <t>INSANE (10 ants, 500 pheromones, 0.1 evaportation, trims)</t>
+  </si>
+  <si>
+    <t>INSANE (20 ants, 500 pheromones, 0.1 evaportation, trims)</t>
+  </si>
+  <si>
+    <t>INSANE (5 ants, 500 pheromones, 0.1 evaportation, trims)</t>
+  </si>
+  <si>
+    <t>INSANE (20 ants, 200 pheromones, 0.1 evaportation, trims)</t>
+  </si>
+  <si>
+    <t>INSANE (20 ants, 1000 pheromones, 0.1 evaportation, trims)</t>
+  </si>
+  <si>
+    <t>INSANE (20 ants, 500 pheromones, 0.05 evaportation, trims)</t>
+  </si>
+  <si>
+    <t>INSANE (20 ants, 500 pheromones, 0.2 evaportation, trims)</t>
+  </si>
+  <si>
+    <t>INSANE (20 ants, 500 pheromones, 0.4 evaportation, trims)</t>
   </si>
 </sst>
 </file>
@@ -105,14 +182,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -414,54 +497,1157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="I1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2.585</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="B7" s="4">
+        <v>2.593</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <f>AVERAGE(B3:B7)</f>
+        <v>2.375</v>
+      </c>
+      <c r="C8" s="3">
+        <f>AVERAGE(C3:C7)</f>
+        <v>15.2</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>38.927999999999997</v>
+      </c>
+      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>134</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>34.67</v>
+      </c>
+      <c r="J3">
+        <v>45</v>
+      </c>
+      <c r="K3">
+        <v>126</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <v>29.57</v>
+      </c>
+      <c r="Q3">
+        <v>52</v>
+      </c>
+      <c r="R3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>31.268999999999998</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>132</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>40.71</v>
+      </c>
+      <c r="J4">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>142</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5">
+        <v>47.75</v>
+      </c>
+      <c r="Q4">
+        <v>79</v>
+      </c>
+      <c r="R4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>51.286000000000001</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>134</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>32.78</v>
+      </c>
+      <c r="J5">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>142</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="5">
+        <v>29.61</v>
+      </c>
+      <c r="Q5">
+        <v>44</v>
+      </c>
+      <c r="R5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>52.908999999999999</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>142</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>38.47</v>
+      </c>
+      <c r="J6">
+        <v>52</v>
+      </c>
+      <c r="K6">
+        <v>142</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="5">
+        <v>63.91</v>
+      </c>
+      <c r="Q6">
+        <v>85</v>
+      </c>
+      <c r="R6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>37.642000000000003</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>144</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>41.03</v>
+      </c>
+      <c r="J7">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>136</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="5">
+        <v>42.97</v>
+      </c>
+      <c r="Q7">
+        <v>66</v>
+      </c>
+      <c r="R7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <f>AVERAGE(B3:B7)</f>
+        <v>42.406799999999997</v>
+      </c>
+      <c r="C8" s="3">
+        <f>AVERAGE(C3:C7)</f>
+        <v>44.4</v>
+      </c>
+      <c r="D8" s="3">
+        <f>AVERAGE(D3:D7)</f>
+        <v>137.19999999999999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5">
+        <f>AVERAGE(I3:I7)</f>
+        <v>37.531999999999996</v>
+      </c>
+      <c r="J8" s="3">
+        <f>AVERAGE(J3:J7)</f>
+        <v>50.6</v>
+      </c>
+      <c r="K8" s="3">
+        <f>AVERAGE(K3:K7)</f>
+        <v>137.6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="5">
+        <f>AVERAGE(P3:P7)</f>
+        <v>42.761999999999993</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>AVERAGE(Q3:Q7)</f>
+        <v>65.2</v>
+      </c>
+      <c r="R8" s="3">
+        <f>AVERAGE(R3:R7)</f>
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>37.44</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>142</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>27.93</v>
+      </c>
+      <c r="J12">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>126</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>19.07</v>
+      </c>
+      <c r="Q12">
+        <v>22</v>
+      </c>
+      <c r="R12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <v>30.58</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>132</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>19.43</v>
+      </c>
+      <c r="J13">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>150</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" s="5">
+        <v>14.91</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>42.33</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>148</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>20.36</v>
+      </c>
+      <c r="J14">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14" s="5">
+        <v>19.87</v>
+      </c>
+      <c r="Q14">
+        <v>26</v>
+      </c>
+      <c r="R14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5">
+        <v>35.03</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>132</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" s="5">
+        <v>30.76</v>
+      </c>
+      <c r="J15">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>166</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>28.7</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>130</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5">
+        <v>15.08</v>
+      </c>
+      <c r="J16">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>148</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5">
+        <f>AVERAGE(B12:B16)</f>
+        <v>34.815999999999995</v>
+      </c>
+      <c r="C17" s="3">
+        <f>AVERAGE(C12:C16)</f>
+        <v>30.6</v>
+      </c>
+      <c r="D17" s="3">
+        <f>AVERAGE(D12:D16)</f>
+        <v>136.80000000000001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5">
+        <f>AVERAGE(I12:I16)</f>
+        <v>22.712</v>
+      </c>
+      <c r="J17" s="3">
+        <f>AVERAGE(J12:J16)</f>
+        <v>29.8</v>
+      </c>
+      <c r="K17" s="3">
+        <f>AVERAGE(K12:K16)</f>
+        <v>146.80000000000001</v>
+      </c>
+      <c r="O17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="5">
+        <f>AVERAGE(P12:P16)</f>
+        <v>17.950000000000003</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>AVERAGE(Q12:Q16)</f>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="R17" s="3">
+        <f>AVERAGE(R12:R16)</f>
+        <v>172.66666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>68.42</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>134</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5">
+        <v>14.13</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="R21">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>63.2</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>142</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22" s="5">
+        <v>10.99</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5">
+        <v>58.55</v>
+      </c>
+      <c r="C23">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>134</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23" s="5">
+        <v>27.03</v>
+      </c>
+      <c r="Q23">
+        <v>19</v>
+      </c>
+      <c r="R23">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>148</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>47.27</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>142</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5">
+        <f>AVERAGE(B21:B25)</f>
+        <v>59.488</v>
+      </c>
+      <c r="C26" s="3">
+        <f>AVERAGE(C21:C25)</f>
+        <v>26.6</v>
+      </c>
+      <c r="D26" s="3">
+        <f>AVERAGE(D21:D25)</f>
+        <v>140</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="O26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="5">
+        <f>AVERAGE(P21:P25)</f>
+        <v>17.383333333333336</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>AVERAGE(Q21:Q25)</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="R26" s="3">
+        <f>AVERAGE(R21:R25)</f>
+        <v>148.66666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5">
+        <v>23.31</v>
+      </c>
+      <c r="C30">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5">
+        <v>15.55</v>
+      </c>
+      <c r="C31">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5">
+        <v>29.35</v>
+      </c>
+      <c r="C33">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="5">
+        <v>20.21</v>
+      </c>
+      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5">
+        <f>AVERAGE(B30:B34)</f>
+        <v>24.284000000000002</v>
+      </c>
+      <c r="C35" s="3">
+        <f>AVERAGE(C30:C34)</f>
+        <v>51.4</v>
+      </c>
+      <c r="D35" s="3">
+        <f>AVERAGE(D30:D34)</f>
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H19:M19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="W1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -469,11 +1655,1667 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1202</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>782</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>787</v>
+      </c>
+      <c r="Q3">
+        <v>128</v>
+      </c>
+      <c r="R3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2726</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>778</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3">
+        <v>896</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>145</v>
+      </c>
+      <c r="R4">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <f>AVERAGE(B3:B4)</f>
+        <v>1964</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:D5" si="0">AVERAGE(C3:C4)</f>
+        <v>38</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>628</v>
+      </c>
+      <c r="Q5">
+        <v>127</v>
+      </c>
+      <c r="R5">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="e">
+        <f>AVERAGE(I3:I7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="3" t="e">
+        <f>AVERAGE(J3:J7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="3" t="e">
+        <f>AVERAGE(K3:K7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
+        <f>AVERAGE(P3:P7)</f>
+        <v>770.33333333333337</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>AVERAGE(Q4:Q7)</f>
+        <v>136</v>
+      </c>
+      <c r="R8" s="3">
+        <f>AVERAGE(R4:R7)</f>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>805</v>
+      </c>
+      <c r="C9">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>834</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>778</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1097</v>
+      </c>
+      <c r="C12">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>778</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>709</v>
+      </c>
+      <c r="J12">
+        <v>99</v>
+      </c>
+      <c r="K12">
+        <v>786</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>433</v>
+      </c>
+      <c r="Q12">
+        <v>52</v>
+      </c>
+      <c r="R12">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>848</v>
+      </c>
+      <c r="C13">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>800</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1008</v>
+      </c>
+      <c r="J13">
+        <v>93</v>
+      </c>
+      <c r="K13">
+        <v>804</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3">
+        <v>520</v>
+      </c>
+      <c r="Q13">
+        <v>51</v>
+      </c>
+      <c r="R13">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <f>AVERAGE(B9:B13)</f>
+        <v>916.66666666666663</v>
+      </c>
+      <c r="C14" s="3">
+        <f>AVERAGE(C9:C13)</f>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="D14" s="3">
+        <f>AVERAGE(D9:D13)</f>
+        <v>794</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1037</v>
+      </c>
+      <c r="J14">
+        <v>98</v>
+      </c>
+      <c r="K14">
+        <v>780</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>574</v>
+      </c>
+      <c r="Q14">
+        <v>60</v>
+      </c>
+      <c r="R14">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <f>AVERAGE(I12:I16)</f>
+        <v>918</v>
+      </c>
+      <c r="J17" s="3">
+        <f>AVERAGE(J12:J16)</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="K17" s="3">
+        <f>AVERAGE(K12:K16)</f>
+        <v>790</v>
+      </c>
+      <c r="O17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
+        <f>AVERAGE(P12:P16)</f>
+        <v>509</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>AVERAGE(Q12:Q16)</f>
+        <v>54.333333333333336</v>
+      </c>
+      <c r="R17" s="3">
+        <f>AVERAGE(R12:R16)</f>
+        <v>817.33333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1248</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1582</v>
+      </c>
+      <c r="C19">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>778</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <f>AVERAGE(B18:B19)</f>
+        <v>1415</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" ref="C20:D20" si="1">AVERAGE(C18:C19)</f>
+        <v>52</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>782</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>537</v>
+      </c>
+      <c r="J21">
+        <v>68</v>
+      </c>
+      <c r="K21">
+        <v>784</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>894</v>
+      </c>
+      <c r="Q21">
+        <v>32</v>
+      </c>
+      <c r="R21">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>526</v>
+      </c>
+      <c r="J22">
+        <v>63</v>
+      </c>
+      <c r="K22">
+        <v>878</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>564</v>
+      </c>
+      <c r="J23">
+        <v>88</v>
+      </c>
+      <c r="K23">
+        <v>840</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>673751</v>
+      </c>
+      <c r="C24">
+        <v>91</v>
+      </c>
+      <c r="D24">
+        <v>786</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>677668</v>
+      </c>
+      <c r="C25">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>792</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <f>AVERAGE(B24:B25)</f>
+        <v>675709.5</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:D26" si="2">AVERAGE(C24:C25)</f>
+        <v>85</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="2"/>
+        <v>789</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
+        <f>AVERAGE(I21:I25)</f>
+        <v>542.33333333333337</v>
+      </c>
+      <c r="J26" s="3">
+        <f>AVERAGE(J21:J25)</f>
+        <v>73</v>
+      </c>
+      <c r="K26" s="3">
+        <f>AVERAGE(K21:K25)</f>
+        <v>834</v>
+      </c>
+      <c r="O26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
+        <f>AVERAGE(P21:P25)</f>
+        <v>894</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" ref="Q26:R26" si="3">AVERAGE(Q21:Q25)</f>
+        <v>32</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="3"/>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>486</v>
+      </c>
+      <c r="C30">
+        <v>88</v>
+      </c>
+      <c r="D30">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3">
+        <v>490</v>
+      </c>
+      <c r="C31">
+        <v>111</v>
+      </c>
+      <c r="D31">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <f>AVERAGE(B30:B31)</f>
+        <v>488</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" ref="C32:D32" si="4">AVERAGE(C30:C31)</f>
+        <v>99.5</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3">
+        <v>706954</v>
+      </c>
+      <c r="C36">
+        <v>199</v>
+      </c>
+      <c r="D36">
+        <v>922</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H19:M19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>270</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>517</v>
+      </c>
+      <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="J3">
+        <v>252</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>475</v>
+      </c>
+      <c r="P3">
+        <v>94</v>
+      </c>
+      <c r="Q3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>316</v>
+      </c>
+      <c r="C4">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <v>270</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>619</v>
+      </c>
+      <c r="I4">
+        <v>66</v>
+      </c>
+      <c r="J4">
+        <v>266</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>525</v>
+      </c>
+      <c r="P4">
+        <v>93</v>
+      </c>
+      <c r="Q4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>307</v>
+      </c>
+      <c r="C5">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>314</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>728</v>
+      </c>
+      <c r="I5">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>288</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>562</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>203</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>260</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>474</v>
+      </c>
+      <c r="I6">
+        <v>58</v>
+      </c>
+      <c r="J6">
+        <v>286</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>455</v>
+      </c>
+      <c r="P6">
+        <v>91</v>
+      </c>
+      <c r="Q6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>336</v>
+      </c>
+      <c r="C7">
+        <v>76</v>
+      </c>
+      <c r="D7">
+        <v>272</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>529</v>
+      </c>
+      <c r="I7">
+        <v>63</v>
+      </c>
+      <c r="J7">
+        <v>278</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>451</v>
+      </c>
+      <c r="P7">
+        <v>92</v>
+      </c>
+      <c r="Q7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(B3:B7)</f>
+        <v>292.39999999999998</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D8" si="0">AVERAGE(C3:C7)</f>
+        <v>72.599999999999994</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>277.2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(H3:H7)</f>
+        <v>573.4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8" si="1">AVERAGE(I3:I7)</f>
+        <v>64.2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8" si="2">AVERAGE(J3:J7)</f>
+        <v>274</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(O3:O7)</f>
+        <v>493.6</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8" si="3">AVERAGE(P3:P7)</f>
+        <v>94</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8" si="4">AVERAGE(Q3:Q7)</f>
+        <v>263.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>344</v>
+      </c>
+      <c r="C12">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>278</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>344</v>
+      </c>
+      <c r="I12">
+        <v>52</v>
+      </c>
+      <c r="J12">
+        <v>332</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>195</v>
+      </c>
+      <c r="P12">
+        <v>42</v>
+      </c>
+      <c r="Q12">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>376</v>
+      </c>
+      <c r="C13">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>268</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>354</v>
+      </c>
+      <c r="I13">
+        <v>58</v>
+      </c>
+      <c r="J13">
+        <v>270</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>227</v>
+      </c>
+      <c r="P13">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>344</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>274</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>346</v>
+      </c>
+      <c r="I14">
+        <v>66</v>
+      </c>
+      <c r="J14">
+        <v>266</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>248</v>
+      </c>
+      <c r="P14">
+        <v>31</v>
+      </c>
+      <c r="Q14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>306</v>
+      </c>
+      <c r="C15">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>274</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>366</v>
+      </c>
+      <c r="I15">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>260</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>209</v>
+      </c>
+      <c r="P15">
+        <v>33</v>
+      </c>
+      <c r="Q15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>280</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(B12:B16)</f>
+        <v>334</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17" si="5">AVERAGE(C12:C16)</f>
+        <v>54.2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17" si="6">AVERAGE(D12:D16)</f>
+        <v>274.8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f>AVERAGE(H12:H16)</f>
+        <v>352.5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17" si="7">AVERAGE(I12:I16)</f>
+        <v>55.5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="8">AVERAGE(J12:J16)</f>
+        <v>282</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(O12:O16)</f>
+        <v>219.75</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17" si="9">AVERAGE(P12:P16)</f>
+        <v>36.5</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17" si="10">AVERAGE(Q12:Q16)</f>
+        <v>282.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>262</v>
+      </c>
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>302</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>152</v>
+      </c>
+      <c r="P21">
+        <v>26</v>
+      </c>
+      <c r="Q21">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>315</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>288</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>170</v>
+      </c>
+      <c r="P22">
+        <v>23</v>
+      </c>
+      <c r="Q22">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>352</v>
+      </c>
+      <c r="C23">
+        <v>92</v>
+      </c>
+      <c r="D23">
+        <v>286</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>165</v>
+      </c>
+      <c r="P23">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>272</v>
+      </c>
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>284</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>132</v>
+      </c>
+      <c r="P24">
+        <v>21</v>
+      </c>
+      <c r="Q24">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>274</v>
+      </c>
+      <c r="C25">
+        <v>95</v>
+      </c>
+      <c r="D25">
+        <v>264</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B21:B25)</f>
+        <v>295</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26" si="11">AVERAGE(C21:C25)</f>
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26" si="12">AVERAGE(D21:D25)</f>
+        <v>284.8</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <f>AVERAGE(O21:O25)</f>
+        <v>154.75</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26" si="13">AVERAGE(P21:P25)</f>
+        <v>23.5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26" si="14">AVERAGE(Q21:Q25)</f>
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH36"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -481,36 +3323,12 @@
       <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2.2330000000000001</v>
       </c>
       <c r="C3">
@@ -522,7 +3340,7 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>73.501000000000005</v>
       </c>
       <c r="K3">
@@ -531,28 +3349,15 @@
       <c r="L3">
         <v>142</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1202</v>
-      </c>
-      <c r="R3">
-        <v>34</v>
-      </c>
-      <c r="S3">
-        <v>782</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="AE3" s="3"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>1.8979999999999999</v>
       </c>
       <c r="C4">
@@ -564,7 +3369,7 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>48.935000000000002</v>
       </c>
       <c r="K4">
@@ -573,20 +3378,16 @@
       <c r="L4">
         <v>144</v>
       </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>3.391</v>
       </c>
       <c r="C5">
@@ -598,7 +3399,7 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>57.534999999999997</v>
       </c>
       <c r="K5">
@@ -607,20 +3408,16 @@
       <c r="L5">
         <v>128</v>
       </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>3.484</v>
       </c>
       <c r="C6">
@@ -632,7 +3429,7 @@
       <c r="I6">
         <v>4</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>62.662999999999997</v>
       </c>
       <c r="K6">
@@ -641,20 +3438,15 @@
       <c r="L6">
         <v>148</v>
       </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="W6">
-        <v>4</v>
-      </c>
-      <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="AE6" s="3"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>2.4140000000000001</v>
       </c>
       <c r="C7">
@@ -666,7 +3458,7 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>54.209000000000003</v>
       </c>
       <c r="K7">
@@ -675,24 +3467,24 @@
       <c r="L7">
         <v>142</v>
       </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="W7">
-        <v>5</v>
-      </c>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="X7" s="3"/>
+      <c r="AE7" s="3"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <f>AVERAGE(B3:B7)</f>
         <v>2.6840000000000002</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <f>AVERAGE(C3:C7)</f>
         <v>20.6</v>
       </c>
@@ -702,64 +3494,41 @@
       <c r="I8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <f>AVERAGE(J3:J7)</f>
         <v>59.368600000000001</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <f>AVERAGE(K3:K7)</f>
         <v>59.6</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <f>AVERAGE(L3:L7)</f>
         <v>140.80000000000001</v>
       </c>
-      <c r="P8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="2">
-        <f>AVERAGE(Q3:Q7)</f>
-        <v>1202</v>
-      </c>
-      <c r="R8" s="2">
-        <f>AVERAGE(R3:R7)</f>
-        <v>34</v>
-      </c>
-      <c r="S8" s="2">
-        <f>AVERAGE(S3:S7)</f>
-        <v>782</v>
-      </c>
-      <c r="W8" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="2" t="e">
-        <f>AVERAGE(X3:X7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y8" s="2" t="e">
-        <f>AVERAGE(Y3:Y7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z8" s="2" t="e">
-        <f>AVERAGE(Z3:Z7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="I9" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J9" s="5"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -771,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>1</v>
@@ -779,28 +3548,24 @@
       <c r="L10" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="W10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q10" s="3"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>2.85</v>
       </c>
       <c r="C11">
@@ -812,7 +3577,7 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <v>38.927999999999997</v>
       </c>
       <c r="K11">
@@ -821,36 +3586,13 @@
       <c r="L11">
         <v>134</v>
       </c>
-      <c r="P11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" t="s">
-        <v>6</v>
-      </c>
-      <c r="W11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>1.8540000000000001</v>
       </c>
       <c r="C12">
@@ -862,7 +3604,7 @@
       <c r="I12">
         <v>2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <v>31.268999999999998</v>
       </c>
       <c r="K12">
@@ -871,28 +3613,15 @@
       <c r="L12">
         <v>132</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>805</v>
-      </c>
-      <c r="R12">
-        <v>77</v>
-      </c>
-      <c r="S12">
-        <v>780</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>2.585</v>
       </c>
       <c r="C13">
@@ -904,7 +3633,7 @@
       <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <v>51.286000000000001</v>
       </c>
       <c r="K13">
@@ -913,28 +3642,15 @@
       <c r="L13">
         <v>134</v>
       </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13">
-        <v>95</v>
-      </c>
-      <c r="S13">
-        <v>834</v>
-      </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>1.9930000000000001</v>
       </c>
       <c r="C14">
@@ -946,7 +3662,7 @@
       <c r="I14">
         <v>4</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="5">
         <v>52.908999999999999</v>
       </c>
       <c r="K14">
@@ -955,28 +3671,17 @@
       <c r="L14">
         <v>142</v>
       </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14">
-        <v>64</v>
-      </c>
-      <c r="S14">
-        <v>778</v>
-      </c>
-      <c r="W14">
-        <v>3</v>
-      </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>2.593</v>
       </c>
       <c r="C15">
@@ -988,7 +3693,7 @@
       <c r="I15">
         <v>5</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="5">
         <v>37.642000000000003</v>
       </c>
       <c r="K15">
@@ -997,24 +3702,18 @@
       <c r="L15">
         <v>144</v>
       </c>
-      <c r="P15">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="W15">
-        <v>4</v>
-      </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X15" s="3"/>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <f>AVERAGE(B11:B15)</f>
         <v>2.375</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <f>AVERAGE(C11:C15)</f>
         <v>15.2</v>
       </c>
@@ -1024,69 +3723,45 @@
       <c r="I16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <f>AVERAGE(J11:J15)</f>
         <v>42.406799999999997</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3">
         <f>AVERAGE(K11:K15)</f>
         <v>44.4</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3">
         <f>AVERAGE(L11:L15)</f>
         <v>137.19999999999999</v>
       </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="W16">
-        <v>5</v>
-      </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="9:28" x14ac:dyDescent="0.3">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="X16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="P17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="2">
-        <f>AVERAGE(Q12:Q16)</f>
-        <v>805</v>
-      </c>
-      <c r="R17" s="2">
-        <f>AVERAGE(R12:R16)</f>
-        <v>78.666666666666671</v>
-      </c>
-      <c r="S17" s="2">
-        <f>AVERAGE(S12:S16)</f>
-        <v>797.33333333333337</v>
-      </c>
-      <c r="W17" t="s">
-        <v>4</v>
-      </c>
-      <c r="X17" s="2" t="e">
-        <f>AVERAGE(X12:X16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y17" s="2" t="e">
-        <f>AVERAGE(Y12:Y16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z17" s="2" t="e">
-        <f>AVERAGE(Z12:Z16)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="9:28" x14ac:dyDescent="0.3">
+      <c r="J17" s="5"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+    </row>
+    <row r="18" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
         <v>1</v>
@@ -1097,12 +3772,13 @@
       <c r="M18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="9:28" x14ac:dyDescent="0.3">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <v>51.377000000000002</v>
       </c>
       <c r="K19">
@@ -1114,28 +3790,24 @@
       <c r="M19" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="W19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="9:28" x14ac:dyDescent="0.3">
+      <c r="Q19" s="3"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I20">
         <v>2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <v>53.661000000000001</v>
       </c>
       <c r="K20">
@@ -1147,36 +3819,15 @@
       <c r="M20">
         <v>130</v>
       </c>
-      <c r="P20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" t="s">
-        <v>6</v>
-      </c>
-      <c r="W20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="9:28" x14ac:dyDescent="0.3">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I21">
         <v>3</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <v>55.753</v>
       </c>
       <c r="K21">
@@ -1188,28 +3839,14 @@
       <c r="M21">
         <v>148</v>
       </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1248</v>
-      </c>
-      <c r="R21">
-        <v>45</v>
-      </c>
-      <c r="S21">
-        <v>786</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="9:28" x14ac:dyDescent="0.3">
+      <c r="Q21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I22">
         <v>4</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="5">
         <v>67.671000000000006</v>
       </c>
       <c r="K22">
@@ -1221,28 +3858,20 @@
       <c r="M22">
         <v>142</v>
       </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>1582</v>
-      </c>
-      <c r="R22">
-        <v>59</v>
-      </c>
-      <c r="S22">
-        <v>778</v>
-      </c>
-      <c r="W22">
-        <v>2</v>
-      </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="9:28" x14ac:dyDescent="0.3">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="X22" s="3"/>
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I23">
         <v>5</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <v>47.716000000000001</v>
       </c>
       <c r="K23">
@@ -1254,122 +3883,81 @@
       <c r="M23">
         <v>142</v>
       </c>
-      <c r="P23">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="W23">
-        <v>3</v>
-      </c>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="9:28" x14ac:dyDescent="0.3">
+      <c r="X23" s="3"/>
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="5">
         <f>AVERAGE(J19:J23)</f>
         <v>55.235599999999998</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="3">
         <f>AVERAGE(K19:K23)</f>
         <v>61.8</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="3">
         <f>AVERAGE(L19:L23)</f>
         <v>138.80000000000001</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="3">
         <f>AVERAGE(M20:M23)</f>
         <v>140.5</v>
       </c>
-      <c r="P24">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="W24">
-        <v>4</v>
-      </c>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="P25">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="W25">
-        <v>5</v>
-      </c>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="P26" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="2">
-        <f>AVERAGE(Q21:Q25)</f>
-        <v>1415</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" ref="R26:S26" si="0">AVERAGE(R21:R25)</f>
-        <v>52</v>
-      </c>
-      <c r="S26" s="2">
-        <f t="shared" si="0"/>
-        <v>782</v>
-      </c>
-      <c r="W26" t="s">
-        <v>4</v>
-      </c>
-      <c r="X26" s="2" t="e">
-        <f>AVERAGE(X21:X25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" s="2" t="e">
-        <f>AVERAGE(Y21:Y25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="2" t="e">
-        <f>AVERAGE(Z21:Z25)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="25" spans="9:34" x14ac:dyDescent="0.3">
+      <c r="Q25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" spans="9:34" x14ac:dyDescent="0.3">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+    </row>
+    <row r="28" spans="9:34" x14ac:dyDescent="0.3">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="30" spans="9:34" x14ac:dyDescent="0.3">
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="9:34" x14ac:dyDescent="0.3">
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="9:34" x14ac:dyDescent="0.3">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="W1:AB1"/>
     <mergeCell ref="W10:AB10"/>
     <mergeCell ref="W19:AB19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="P1:U1"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="P19:U19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Assignment 3/Resultaten.xlsx
+++ b/Assignment 3/Resultaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9552" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="Easy resultaten" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="56">
   <si>
     <t>Easy (10 ants, 100 pheromones, 0.1 evaporation, GEEN trims)</t>
   </si>
@@ -145,6 +145,48 @@
   <si>
     <t>INSANE (20 ants, 500 pheromones, 0.4 evaportation, trims)</t>
   </si>
+  <si>
+    <t>Grafiek gegevens</t>
+  </si>
+  <si>
+    <t>Grafiek gegevens aantal ants</t>
+  </si>
+  <si>
+    <t>Grafiek gegevens feromonen</t>
+  </si>
+  <si>
+    <t>Grafiek gegevens evaporation</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafiek gegevens aantal ants </t>
+  </si>
+  <si>
+    <t>Grafiek gegevens aantal feromonen</t>
+  </si>
+  <si>
+    <t>Grafiek gegevens evaportation constant</t>
+  </si>
+  <si>
+    <t>Gegevens grafiek aantal ants</t>
+  </si>
+  <si>
+    <t>Gegevens grafiek feromonen</t>
+  </si>
+  <si>
+    <t>Gegevens grafiek evaporation</t>
+  </si>
 </sst>
 </file>
 
@@ -187,14 +229,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -208,6 +250,2905 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time (s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$C$39:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$D$39:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$C$39:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$E$39:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$C$39:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$F$39:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="157493120"/>
+        <c:axId val="129440384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="157493120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> of ants</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129440384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129440384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157493120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Without trims</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trims resultaten'!$R$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>59.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>With trimHist</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trims resultaten'!$R$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>55.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>With trimHist and trimBumps</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trims resultaten'!$R$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>42.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="86046976"/>
+        <c:axId val="115246208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="86046976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> (s)                 Iterations                   Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115246208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115246208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86046976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time (s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$J$39:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$K$39:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>37.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$J$39:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$L$39:$L$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$J$39:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$M$39:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="137097600"/>
+        <c:axId val="59868288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="137097600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Amount</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> of pheromone dropped per iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59868288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="59868288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137097600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time (s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Medium resultaten'!$R$39:$R$42</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$S$39:$S$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Medium resultaten'!$R$39:$R$42</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$T$39:$T$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Medium resultaten'!$R$39:$R$42</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Medium resultaten'!$U$39:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="128589184"/>
+        <c:axId val="128402944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="128589184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Evaporation constant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128402944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="128402944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128589184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time (s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$B$41:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$C$41:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$B$41:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$D$41:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$B$41:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$E$41:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="123078144"/>
+        <c:axId val="123105664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="123078144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Number of ants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123105664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123105664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123078144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time (s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$H$41:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$I$41:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$H$41:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$J$41:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$H$41:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$K$41:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="126199680"/>
+        <c:axId val="126084608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="126199680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Number of pheromones dropper per iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126084608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126084608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126199680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time (s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hard resultaten'!$R$41:$R$44</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$S$41:$S$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hard resultaten'!$R$41:$R$44</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$T$41:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hard resultaten'!$R$41:$R$44</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hard resultaten'!$U$41:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="126189568"/>
+        <c:axId val="126428672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="126189568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Evaporation constant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126428672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126428672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126189568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time(s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$E$31:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$F$31:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>292.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$E$31:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$G$31:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$E$31:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$H$31:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>284.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>277.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="122057472"/>
+        <c:axId val="86789120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="122057472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> of ants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86789120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86789120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122057472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time(s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$J$31:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$K$31:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>573.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>352.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$J$31:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$L$31:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$J$31:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$M$31:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="88772608"/>
+        <c:axId val="121709696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="88772608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Number of dropped</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> pheromones per iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121709696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121709696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88772608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time(s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'INSANE resultaten'!$O$31:$O$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$P$31:$P$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>493.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'INSANE resultaten'!$O$31:$O$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$Q$31:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Length</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'INSANE resultaten'!$O$31:$O$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'INSANE resultaten'!$R$31:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>263.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>282.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="60939264"/>
+        <c:axId val="122385152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="60939264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Evaporation constant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122385152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="122385152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60939264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafiek 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafiek 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafiek 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafiek 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,21 +3440,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -533,7 +3474,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2.85</v>
       </c>
       <c r="C3">
@@ -547,7 +3488,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1.8540000000000001</v>
       </c>
       <c r="C4">
@@ -561,7 +3502,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2.585</v>
       </c>
       <c r="C5">
@@ -575,7 +3516,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1.9930000000000001</v>
       </c>
       <c r="C6">
@@ -589,7 +3530,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2.593</v>
       </c>
       <c r="C7">
@@ -603,11 +3544,11 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f>AVERAGE(B3:B7)</f>
         <v>2.375</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f>AVERAGE(C3:C7)</f>
         <v>15.2</v>
       </c>
@@ -616,58 +3557,58 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -681,39 +3622,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -757,7 +3698,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>38.927999999999997</v>
       </c>
       <c r="C3">
@@ -769,7 +3710,7 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>34.67</v>
       </c>
       <c r="J3">
@@ -781,7 +3722,7 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>29.57</v>
       </c>
       <c r="Q3">
@@ -795,7 +3736,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>31.268999999999998</v>
       </c>
       <c r="C4">
@@ -807,7 +3748,7 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>40.71</v>
       </c>
       <c r="J4">
@@ -819,7 +3760,7 @@
       <c r="O4">
         <v>2</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>47.75</v>
       </c>
       <c r="Q4">
@@ -833,7 +3774,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>51.286000000000001</v>
       </c>
       <c r="C5">
@@ -845,7 +3786,7 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>32.78</v>
       </c>
       <c r="J5">
@@ -857,7 +3798,7 @@
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>29.61</v>
       </c>
       <c r="Q5">
@@ -871,7 +3812,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>52.908999999999999</v>
       </c>
       <c r="C6">
@@ -883,7 +3824,7 @@
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>38.47</v>
       </c>
       <c r="J6">
@@ -895,7 +3836,7 @@
       <c r="O6">
         <v>4</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>63.91</v>
       </c>
       <c r="Q6">
@@ -909,7 +3850,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>37.642000000000003</v>
       </c>
       <c r="C7">
@@ -921,7 +3862,7 @@
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>41.03</v>
       </c>
       <c r="J7">
@@ -933,7 +3874,7 @@
       <c r="O7">
         <v>5</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>42.97</v>
       </c>
       <c r="Q7">
@@ -947,74 +3888,74 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f>AVERAGE(B3:B7)</f>
         <v>42.406799999999997</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f>AVERAGE(C3:C7)</f>
         <v>44.4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f>AVERAGE(D3:D7)</f>
         <v>137.19999999999999</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f>AVERAGE(I3:I7)</f>
         <v>37.531999999999996</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f>AVERAGE(J3:J7)</f>
         <v>50.6</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <f>AVERAGE(K3:K7)</f>
         <v>137.6</v>
       </c>
       <c r="O8" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <f>AVERAGE(P3:P7)</f>
         <v>42.761999999999993</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <f>AVERAGE(Q3:Q7)</f>
         <v>65.2</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="2">
         <f>AVERAGE(R3:R7)</f>
         <v>134.80000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="O10" s="2" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1058,7 +3999,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>37.44</v>
       </c>
       <c r="C12">
@@ -1070,7 +4011,7 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>27.93</v>
       </c>
       <c r="J12">
@@ -1082,7 +4023,7 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>19.07</v>
       </c>
       <c r="Q12">
@@ -1096,7 +4037,7 @@
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>30.58</v>
       </c>
       <c r="C13">
@@ -1108,7 +4049,7 @@
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>19.43</v>
       </c>
       <c r="J13">
@@ -1120,7 +4061,7 @@
       <c r="O13">
         <v>2</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <v>14.91</v>
       </c>
       <c r="Q13">
@@ -1134,7 +4075,7 @@
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>42.33</v>
       </c>
       <c r="C14">
@@ -1146,7 +4087,7 @@
       <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>20.36</v>
       </c>
       <c r="J14">
@@ -1158,7 +4099,7 @@
       <c r="O14">
         <v>3</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <v>19.87</v>
       </c>
       <c r="Q14">
@@ -1172,7 +4113,7 @@
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>35.03</v>
       </c>
       <c r="C15">
@@ -1184,7 +4125,7 @@
       <c r="H15">
         <v>4</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>30.76</v>
       </c>
       <c r="J15">
@@ -1196,13 +4137,13 @@
       <c r="O15">
         <v>4</v>
       </c>
-      <c r="P15" s="5"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>28.7</v>
       </c>
       <c r="C16">
@@ -1214,7 +4155,7 @@
       <c r="H16">
         <v>5</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>15.08</v>
       </c>
       <c r="J16">
@@ -1226,78 +4167,78 @@
       <c r="O16">
         <v>5</v>
       </c>
-      <c r="P16" s="5"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f>AVERAGE(B12:B16)</f>
         <v>34.815999999999995</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f>AVERAGE(C12:C16)</f>
         <v>30.6</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f>AVERAGE(D12:D16)</f>
         <v>136.80000000000001</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f>AVERAGE(I12:I16)</f>
         <v>22.712</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f>AVERAGE(J12:J16)</f>
         <v>29.8</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f>AVERAGE(K12:K16)</f>
         <v>146.80000000000001</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="4">
         <f>AVERAGE(P12:P16)</f>
         <v>17.950000000000003</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <f>AVERAGE(Q12:Q16)</f>
         <v>22.666666666666668</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="2">
         <f>AVERAGE(R12:R16)</f>
         <v>172.66666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="O19" s="2" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="O19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1329,7 +4270,7 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>68.42</v>
       </c>
       <c r="C21">
@@ -1338,11 +4279,11 @@
       <c r="D21">
         <v>134</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="4"/>
       <c r="O21">
         <v>1</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="4">
         <v>14.13</v>
       </c>
       <c r="Q21">
@@ -1356,7 +4297,7 @@
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>63.2</v>
       </c>
       <c r="C22">
@@ -1365,11 +4306,11 @@
       <c r="D22">
         <v>142</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="4"/>
       <c r="O22">
         <v>2</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="4">
         <v>10.99</v>
       </c>
       <c r="Q22">
@@ -1383,7 +4324,7 @@
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>58.55</v>
       </c>
       <c r="C23">
@@ -1392,11 +4333,11 @@
       <c r="D23">
         <v>134</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="4"/>
       <c r="O23">
         <v>3</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="4">
         <v>27.03</v>
       </c>
       <c r="Q23">
@@ -1410,7 +4351,7 @@
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>60</v>
       </c>
       <c r="C24">
@@ -1419,17 +4360,17 @@
       <c r="D24">
         <v>148</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="4"/>
       <c r="O24">
         <v>4</v>
       </c>
-      <c r="P24" s="5"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>47.27</v>
       </c>
       <c r="C25">
@@ -1438,56 +4379,56 @@
       <c r="D25">
         <v>142</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="4"/>
       <c r="O25">
         <v>5</v>
       </c>
-      <c r="P25" s="5"/>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f>AVERAGE(B21:B25)</f>
         <v>59.488</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f>AVERAGE(C21:C25)</f>
         <v>26.6</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f>AVERAGE(D21:D25)</f>
         <v>140</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
       <c r="O26" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="4">
         <f>AVERAGE(P21:P25)</f>
         <v>17.383333333333336</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="2">
         <f>AVERAGE(Q21:Q25)</f>
         <v>17.333333333333332</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="2">
         <f>AVERAGE(R21:R25)</f>
         <v>148.66666666666666</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1507,7 +4448,7 @@
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>23.31</v>
       </c>
       <c r="C30">
@@ -1521,7 +4462,7 @@
       <c r="A31">
         <v>2</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>15.55</v>
       </c>
       <c r="C31">
@@ -1535,7 +4476,7 @@
       <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>33</v>
       </c>
       <c r="C32">
@@ -1545,11 +4486,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>29.35</v>
       </c>
       <c r="C33">
@@ -1559,11 +4500,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>20.21</v>
       </c>
       <c r="C34">
@@ -1573,67 +4514,219 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <f>AVERAGE(B30:B34)</f>
         <v>24.284000000000002</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f>AVERAGE(C30:C34)</f>
         <v>51.4</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <f>AVERAGE(D30:D34)</f>
         <v>144</v>
       </c>
     </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" t="s">
+        <v>54</v>
+      </c>
+      <c r="R38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>24.28</v>
+      </c>
+      <c r="E39">
+        <v>51</v>
+      </c>
+      <c r="F39">
+        <v>144</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>37.53</v>
+      </c>
+      <c r="L39">
+        <v>51</v>
+      </c>
+      <c r="M39">
+        <v>138</v>
+      </c>
+      <c r="R39" t="s">
+        <v>46</v>
+      </c>
+      <c r="S39">
+        <v>42.76</v>
+      </c>
+      <c r="T39">
+        <v>65</v>
+      </c>
+      <c r="U39">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>34.82</v>
+      </c>
+      <c r="E40">
+        <v>31</v>
+      </c>
+      <c r="F40">
+        <v>137</v>
+      </c>
+      <c r="J40">
+        <v>300</v>
+      </c>
+      <c r="K40">
+        <v>34.82</v>
+      </c>
+      <c r="L40">
+        <v>31</v>
+      </c>
+      <c r="M40">
+        <v>137</v>
+      </c>
+      <c r="R40" t="s">
+        <v>47</v>
+      </c>
+      <c r="S40">
+        <v>34.82</v>
+      </c>
+      <c r="T40">
+        <v>31</v>
+      </c>
+      <c r="U40">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>42.41</v>
+      </c>
+      <c r="E41">
+        <v>44</v>
+      </c>
+      <c r="F41">
+        <v>137</v>
+      </c>
+      <c r="J41">
+        <v>500</v>
+      </c>
+      <c r="K41">
+        <v>22.71</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>147</v>
+      </c>
+      <c r="R41" t="s">
+        <v>48</v>
+      </c>
+      <c r="S41">
+        <v>17.95</v>
+      </c>
+      <c r="T41">
+        <v>23</v>
+      </c>
+      <c r="U41">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>59.49</v>
+      </c>
+      <c r="E42">
+        <v>27</v>
+      </c>
+      <c r="F42">
+        <v>140</v>
+      </c>
+      <c r="R42" t="s">
+        <v>49</v>
+      </c>
+      <c r="S42">
+        <v>17.38</v>
+      </c>
+      <c r="T42">
+        <v>17</v>
+      </c>
+      <c r="U42">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H19:M19"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="O10:T10"/>
     <mergeCell ref="O19:T19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
@@ -1684,7 +4777,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1202</v>
       </c>
       <c r="C3">
@@ -1696,13 +4789,13 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>787</v>
       </c>
       <c r="Q3">
@@ -1716,7 +4809,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2726</v>
       </c>
       <c r="C4">
@@ -1728,16 +4821,16 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>896</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>145</v>
       </c>
       <c r="R4">
@@ -1748,22 +4841,22 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>AVERAGE(B3:B4)</f>
         <v>1964</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:D5" si="0">AVERAGE(C3:C4)</f>
         <v>38</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="O5">
@@ -1780,17 +4873,17 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -1804,13 +4897,13 @@
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1828,39 +4921,39 @@
       <c r="H8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3" t="e">
+      <c r="I8" s="2" t="e">
         <f>AVERAGE(I3:I7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="3" t="e">
+      <c r="J8" s="2" t="e">
         <f>AVERAGE(J3:J7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="3" t="e">
+      <c r="K8" s="2" t="e">
         <f>AVERAGE(K3:K7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O8" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <f>AVERAGE(P3:P7)</f>
         <v>770.33333333333337</v>
       </c>
-      <c r="Q8" s="3">
-        <f>AVERAGE(Q4:Q7)</f>
-        <v>136</v>
-      </c>
-      <c r="R8" s="3">
-        <f>AVERAGE(R4:R7)</f>
-        <v>798</v>
+      <c r="Q8" s="2">
+        <f>AVERAGE(Q3:Q7)</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="R8" s="2">
+        <f>AVERAGE(R3:R7)</f>
+        <v>805.33333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>805</v>
       </c>
       <c r="C9">
@@ -1874,7 +4967,7 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10">
@@ -1883,14 +4976,14 @@
       <c r="D10">
         <v>834</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
@@ -1903,7 +4996,7 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -1941,7 +5034,7 @@
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1097</v>
       </c>
       <c r="C12">
@@ -1953,7 +5046,7 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>709</v>
       </c>
       <c r="J12">
@@ -1965,7 +5058,7 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>433</v>
       </c>
       <c r="Q12">
@@ -1979,7 +5072,7 @@
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>848</v>
       </c>
       <c r="C13">
@@ -1991,7 +5084,7 @@
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>1008</v>
       </c>
       <c r="J13">
@@ -2003,7 +5096,7 @@
       <c r="O13">
         <v>2</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <v>520</v>
       </c>
       <c r="Q13">
@@ -2017,22 +5110,22 @@
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>AVERAGE(B9:B13)</f>
         <v>916.66666666666663</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f>AVERAGE(C9:C13)</f>
         <v>76.599999999999994</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f>AVERAGE(D9:D13)</f>
         <v>794</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>1037</v>
       </c>
       <c r="J14">
@@ -2044,7 +5137,7 @@
       <c r="O14">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <v>574</v>
       </c>
       <c r="Q14">
@@ -2058,11 +5151,11 @@
       <c r="H15">
         <v>4</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="2"/>
       <c r="O15">
         <v>4</v>
       </c>
-      <c r="P15" s="3"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -2076,11 +5169,11 @@
       <c r="H16">
         <v>5</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="2"/>
       <c r="O16">
         <v>5</v>
       </c>
-      <c r="P16" s="3"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2098,30 +5191,30 @@
       <c r="H17" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <f>AVERAGE(I12:I16)</f>
         <v>918</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f>AVERAGE(J12:J16)</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f>AVERAGE(K12:K16)</f>
         <v>790</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <f>AVERAGE(P12:P16)</f>
         <v>509</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <f>AVERAGE(Q12:Q16)</f>
         <v>54.333333333333336</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="2">
         <f>AVERAGE(R12:R16)</f>
         <v>817.33333333333337</v>
       </c>
@@ -2130,7 +5223,7 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>1248</v>
       </c>
       <c r="C18">
@@ -2144,7 +5237,7 @@
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1582</v>
       </c>
       <c r="C19">
@@ -2153,14 +5246,14 @@
       <c r="D19">
         <v>778</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
@@ -2173,15 +5266,15 @@
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f>AVERAGE(B18:B19)</f>
         <v>1415</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" ref="C20:D20" si="1">AVERAGE(C18:C19)</f>
         <v>52</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f t="shared" si="1"/>
         <v>782</v>
       </c>
@@ -2211,11 +5304,11 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>537</v>
       </c>
       <c r="J21">
@@ -2249,7 +5342,7 @@
       <c r="H22">
         <v>2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>526</v>
       </c>
       <c r="J22">
@@ -2261,7 +5354,7 @@
       <c r="O22">
         <v>2</v>
       </c>
-      <c r="P22" s="3"/>
+      <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2279,7 +5372,7 @@
       <c r="H23">
         <v>3</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>564</v>
       </c>
       <c r="J23">
@@ -2291,13 +5384,13 @@
       <c r="O23">
         <v>3</v>
       </c>
-      <c r="P23" s="3"/>
+      <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>673751</v>
       </c>
       <c r="C24">
@@ -2309,17 +5402,17 @@
       <c r="H24">
         <v>4</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="2"/>
       <c r="O24">
         <v>4</v>
       </c>
-      <c r="P24" s="3"/>
+      <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>677668</v>
       </c>
       <c r="C25">
@@ -2331,55 +5424,55 @@
       <c r="H25">
         <v>5</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="2"/>
       <c r="O25">
         <v>5</v>
       </c>
-      <c r="P25" s="3"/>
+      <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f>AVERAGE(B24:B25)</f>
         <v>675709.5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" ref="C26:D26" si="2">AVERAGE(C24:C25)</f>
         <v>85</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f t="shared" si="2"/>
         <v>789</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <f>AVERAGE(I21:I25)</f>
         <v>542.33333333333337</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <f>AVERAGE(J21:J25)</f>
         <v>73</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <f>AVERAGE(K21:K25)</f>
         <v>834</v>
       </c>
       <c r="O26" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="2">
         <f>AVERAGE(P21:P25)</f>
         <v>894</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="2">
         <f t="shared" ref="Q26:R26" si="3">AVERAGE(Q21:Q25)</f>
         <v>32</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="2">
         <f t="shared" si="3"/>
         <v>924</v>
       </c>
@@ -2412,7 +5505,7 @@
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>486</v>
       </c>
       <c r="C30">
@@ -2426,7 +5519,7 @@
       <c r="A31">
         <v>2</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>490</v>
       </c>
       <c r="C31">
@@ -2440,25 +5533,25 @@
       <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <f>AVERAGE(B30:B31)</f>
         <v>488</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" ref="C32:D32" si="4">AVERAGE(C30:C31)</f>
         <v>99.5</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <f t="shared" si="4"/>
         <v>850</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2472,11 +5565,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>706954</v>
       </c>
       <c r="C36">
@@ -2484,6 +5577,185 @@
       </c>
       <c r="D36">
         <v>922</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>707</v>
+      </c>
+      <c r="D41">
+        <v>199</v>
+      </c>
+      <c r="E41">
+        <v>922</v>
+      </c>
+      <c r="H41">
+        <v>400</v>
+      </c>
+      <c r="I41">
+        <v>918</v>
+      </c>
+      <c r="J41">
+        <v>97</v>
+      </c>
+      <c r="K41">
+        <v>790</v>
+      </c>
+      <c r="R41" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41">
+        <v>770</v>
+      </c>
+      <c r="T41">
+        <v>133</v>
+      </c>
+      <c r="U41">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>488</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>850</v>
+      </c>
+      <c r="H42">
+        <v>800</v>
+      </c>
+      <c r="I42">
+        <v>917</v>
+      </c>
+      <c r="J42">
+        <v>77</v>
+      </c>
+      <c r="K42">
+        <v>794</v>
+      </c>
+      <c r="R42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S42">
+        <v>917</v>
+      </c>
+      <c r="T42">
+        <v>77</v>
+      </c>
+      <c r="U42">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>676</v>
+      </c>
+      <c r="D43">
+        <v>85</v>
+      </c>
+      <c r="E43">
+        <v>789</v>
+      </c>
+      <c r="H43">
+        <v>1200</v>
+      </c>
+      <c r="I43">
+        <v>542</v>
+      </c>
+      <c r="J43">
+        <v>73</v>
+      </c>
+      <c r="K43">
+        <v>834</v>
+      </c>
+      <c r="R43" t="s">
+        <v>48</v>
+      </c>
+      <c r="S43">
+        <v>509</v>
+      </c>
+      <c r="T43">
+        <v>54</v>
+      </c>
+      <c r="U43">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>917</v>
+      </c>
+      <c r="D44">
+        <v>77</v>
+      </c>
+      <c r="E44">
+        <v>794</v>
+      </c>
+      <c r="R44" t="s">
+        <v>49</v>
+      </c>
+      <c r="S44">
+        <v>894</v>
+      </c>
+      <c r="T44">
+        <v>32</v>
+      </c>
+      <c r="U44">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>1415</v>
+      </c>
+      <c r="D45">
+        <v>52</v>
+      </c>
+      <c r="E45">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>1964</v>
+      </c>
+      <c r="D46">
+        <v>38</v>
+      </c>
+      <c r="E46">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -2494,15 +5766,16 @@
     <mergeCell ref="H19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3014,7 +6287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3061,7 +6334,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3069,7 +6342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3095,7 +6368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3121,7 +6394,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3147,7 +6420,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3173,7 +6446,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3199,7 +6472,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -3216,7 +6489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3248,8 +6521,148 @@
         <v>342</v>
       </c>
     </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>295</v>
+      </c>
+      <c r="G31">
+        <v>85</v>
+      </c>
+      <c r="H31">
+        <v>284.8</v>
+      </c>
+      <c r="J31">
+        <v>200</v>
+      </c>
+      <c r="K31">
+        <v>573.4</v>
+      </c>
+      <c r="L31">
+        <v>64.2</v>
+      </c>
+      <c r="M31">
+        <v>274</v>
+      </c>
+      <c r="O31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31">
+        <v>493.6</v>
+      </c>
+      <c r="Q31">
+        <v>94</v>
+      </c>
+      <c r="R31">
+        <v>263.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="G32">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H32">
+        <v>277.2</v>
+      </c>
+      <c r="J32">
+        <v>500</v>
+      </c>
+      <c r="K32">
+        <v>334</v>
+      </c>
+      <c r="L32">
+        <v>54.2</v>
+      </c>
+      <c r="M32">
+        <v>274.8</v>
+      </c>
+      <c r="O32" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32">
+        <v>334</v>
+      </c>
+      <c r="Q32">
+        <v>54.2</v>
+      </c>
+      <c r="R32">
+        <v>274.8</v>
+      </c>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>334</v>
+      </c>
+      <c r="G33">
+        <v>54.2</v>
+      </c>
+      <c r="H33">
+        <v>274.8</v>
+      </c>
+      <c r="J33">
+        <v>1000</v>
+      </c>
+      <c r="K33">
+        <v>352.5</v>
+      </c>
+      <c r="L33">
+        <v>55.5</v>
+      </c>
+      <c r="M33">
+        <v>282</v>
+      </c>
+      <c r="O33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33">
+        <v>219.75</v>
+      </c>
+      <c r="Q33">
+        <v>36.5</v>
+      </c>
+      <c r="R33">
+        <v>282.5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34">
+        <v>154.75</v>
+      </c>
+      <c r="Q34">
+        <v>23.5</v>
+      </c>
+      <c r="R34">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3258,40 +6671,42 @@
   <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -3323,12 +6738,24 @@
       <c r="L2" t="s">
         <v>6</v>
       </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>59.37</v>
+      </c>
+      <c r="S2">
+        <v>60</v>
+      </c>
+      <c r="T2">
+        <v>141</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2.2330000000000001</v>
       </c>
       <c r="C3">
@@ -3340,7 +6767,7 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>73.501000000000005</v>
       </c>
       <c r="K3">
@@ -3349,15 +6776,26 @@
       <c r="L3">
         <v>142</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="AE3" s="3"/>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>42.41</v>
+      </c>
+      <c r="S3">
+        <v>44</v>
+      </c>
+      <c r="T3">
+        <v>137</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="AE3" s="2"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1.8979999999999999</v>
       </c>
       <c r="C4">
@@ -3369,7 +6807,7 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>48.935000000000002</v>
       </c>
       <c r="K4">
@@ -3378,16 +6816,27 @@
       <c r="L4">
         <v>144</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="Q4" s="2">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>55.24</v>
+      </c>
+      <c r="S4">
+        <v>62</v>
+      </c>
+      <c r="T4">
+        <v>139</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3.391</v>
       </c>
       <c r="C5">
@@ -3399,7 +6848,7 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>57.534999999999997</v>
       </c>
       <c r="K5">
@@ -3408,16 +6857,16 @@
       <c r="L5">
         <v>128</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3.484</v>
       </c>
       <c r="C6">
@@ -3429,7 +6878,7 @@
       <c r="I6">
         <v>4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>62.662999999999997</v>
       </c>
       <c r="K6">
@@ -3438,15 +6887,15 @@
       <c r="L6">
         <v>148</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="AE6" s="3"/>
+      <c r="Q6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2.4140000000000001</v>
       </c>
       <c r="C7">
@@ -3458,7 +6907,7 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>54.209000000000003</v>
       </c>
       <c r="K7">
@@ -3473,18 +6922,18 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="X7" s="3"/>
-      <c r="AE7" s="3"/>
+      <c r="X7" s="2"/>
+      <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f>AVERAGE(B3:B7)</f>
         <v>2.6840000000000002</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f>AVERAGE(C3:C7)</f>
         <v>20.6</v>
       </c>
@@ -3494,24 +6943,24 @@
       <c r="I8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f>AVERAGE(J3:J7)</f>
         <v>59.368600000000001</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <f>AVERAGE(K3:K7)</f>
         <v>59.6</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <f>AVERAGE(L3:L7)</f>
         <v>140.80000000000001</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3520,8 +6969,8 @@
       <c r="I9" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="Q9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3548,13 +6997,13 @@
       <c r="L10" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
@@ -3565,7 +7014,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2.85</v>
       </c>
       <c r="C11">
@@ -3577,7 +7026,7 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>38.927999999999997</v>
       </c>
       <c r="K11">
@@ -3586,13 +7035,13 @@
       <c r="L11">
         <v>134</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1.8540000000000001</v>
       </c>
       <c r="C12">
@@ -3604,7 +7053,7 @@
       <c r="I12">
         <v>2</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>31.268999999999998</v>
       </c>
       <c r="K12">
@@ -3613,15 +7062,15 @@
       <c r="L12">
         <v>132</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="AE12" s="3"/>
+      <c r="Q12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="AE12" s="2"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>2.585</v>
       </c>
       <c r="C13">
@@ -3633,7 +7082,7 @@
       <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>51.286000000000001</v>
       </c>
       <c r="K13">
@@ -3642,15 +7091,15 @@
       <c r="L13">
         <v>134</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="AE13" s="3"/>
+      <c r="Q13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="AE13" s="2"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1.9930000000000001</v>
       </c>
       <c r="C14">
@@ -3662,7 +7111,7 @@
       <c r="I14">
         <v>4</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>52.908999999999999</v>
       </c>
       <c r="K14">
@@ -3671,17 +7120,17 @@
       <c r="L14">
         <v>142</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="AE14" s="3"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="AE14" s="2"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>2.593</v>
       </c>
       <c r="C15">
@@ -3693,7 +7142,7 @@
       <c r="I15">
         <v>5</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>37.642000000000003</v>
       </c>
       <c r="K15">
@@ -3702,18 +7151,18 @@
       <c r="L15">
         <v>144</v>
       </c>
-      <c r="X15" s="3"/>
-      <c r="AE15" s="3"/>
+      <c r="X15" s="2"/>
+      <c r="AE15" s="2"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f>AVERAGE(B11:B15)</f>
         <v>2.375</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f>AVERAGE(C11:C15)</f>
         <v>15.2</v>
       </c>
@@ -3723,15 +7172,15 @@
       <c r="I16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <f>AVERAGE(J11:J15)</f>
         <v>42.406799999999997</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <f>AVERAGE(K11:K15)</f>
         <v>44.4</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <f>AVERAGE(L11:L15)</f>
         <v>137.19999999999999</v>
       </c>
@@ -3741,20 +7190,20 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="X16" s="3"/>
-      <c r="AE16" s="3"/>
+      <c r="X16" s="2"/>
+      <c r="AE16" s="2"/>
     </row>
     <row r="17" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
     </row>
     <row r="18" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
@@ -3772,13 +7221,13 @@
       <c r="M18" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="3"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>51.377000000000002</v>
       </c>
       <c r="K19">
@@ -3790,13 +7239,13 @@
       <c r="M19" t="s">
         <v>9</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
@@ -3807,7 +7256,7 @@
       <c r="I20">
         <v>2</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>53.661000000000001</v>
       </c>
       <c r="K20">
@@ -3819,15 +7268,15 @@
       <c r="M20">
         <v>130</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
     <row r="21" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I21">
         <v>3</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>55.753</v>
       </c>
       <c r="K21">
@@ -3839,14 +7288,14 @@
       <c r="M21">
         <v>148</v>
       </c>
-      <c r="Q21" s="3"/>
-      <c r="X21" s="3"/>
+      <c r="Q21" s="2"/>
+      <c r="X21" s="2"/>
     </row>
     <row r="22" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I22">
         <v>4</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>67.671000000000006</v>
       </c>
       <c r="K22">
@@ -3864,14 +7313,14 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="X22" s="3"/>
-      <c r="AE22" s="3"/>
+      <c r="X22" s="2"/>
+      <c r="AE22" s="2"/>
     </row>
     <row r="23" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I23">
         <v>5</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>47.716000000000001</v>
       </c>
       <c r="K23">
@@ -3883,48 +7332,48 @@
       <c r="M23">
         <v>142</v>
       </c>
-      <c r="X23" s="3"/>
-      <c r="AE23" s="3"/>
+      <c r="X23" s="2"/>
+      <c r="AE23" s="2"/>
     </row>
     <row r="24" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <f>AVERAGE(J19:J23)</f>
         <v>55.235599999999998</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <f>AVERAGE(K19:K23)</f>
         <v>61.8</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <f>AVERAGE(L19:L23)</f>
         <v>138.80000000000001</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <f>AVERAGE(M20:M23)</f>
         <v>140.5</v>
       </c>
-      <c r="Q24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="AE24" s="3"/>
+      <c r="Q24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="AE24" s="2"/>
     </row>
     <row r="25" spans="9:34" x14ac:dyDescent="0.3">
-      <c r="Q25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="AE25" s="3"/>
+      <c r="Q25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="AE25" s="2"/>
     </row>
     <row r="26" spans="9:34" x14ac:dyDescent="0.3">
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
     </row>
     <row r="28" spans="9:34" x14ac:dyDescent="0.3">
       <c r="P28" s="1"/>
@@ -3935,18 +7384,18 @@
       <c r="U28" s="1"/>
     </row>
     <row r="30" spans="9:34" x14ac:dyDescent="0.3">
-      <c r="Q30" s="3"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="9:34" x14ac:dyDescent="0.3">
-      <c r="Q31" s="3"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="9:34" x14ac:dyDescent="0.3">
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="36" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q36" s="3"/>
+      <c r="Q36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3959,5 +7408,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assignment 3/Resultaten.xlsx
+++ b/Assignment 3/Resultaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9552" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Easy resultaten" sheetId="3" r:id="rId1"/>
@@ -447,11 +447,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157493120"/>
-        <c:axId val="129440384"/>
+        <c:axId val="113601152"/>
+        <c:axId val="113623808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157493120"/>
+        <c:axId val="113601152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129440384"/>
+        <c:crossAx val="113623808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -493,7 +493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129440384"/>
+        <c:axId val="113623808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157493120"/>
+        <c:crossAx val="113601152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -634,11 +634,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="86046976"/>
-        <c:axId val="115246208"/>
+        <c:axId val="113828224"/>
+        <c:axId val="113830144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86046976"/>
+        <c:axId val="113828224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115246208"/>
+        <c:crossAx val="113830144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -679,7 +679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115246208"/>
+        <c:axId val="113830144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86046976"/>
+        <c:crossAx val="113828224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -889,11 +889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137097600"/>
-        <c:axId val="59868288"/>
+        <c:axId val="113387392"/>
+        <c:axId val="113397760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137097600"/>
+        <c:axId val="113387392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59868288"/>
+        <c:crossAx val="113397760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -935,7 +935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59868288"/>
+        <c:axId val="113397760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137097600"/>
+        <c:crossAx val="113387392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1160,11 +1160,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="128589184"/>
-        <c:axId val="128402944"/>
+        <c:axId val="135398528"/>
+        <c:axId val="135400448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128589184"/>
+        <c:axId val="135398528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128402944"/>
+        <c:crossAx val="135400448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1200,7 +1200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128402944"/>
+        <c:axId val="135400448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,7 +1211,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128589184"/>
+        <c:crossAx val="135398528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1464,11 +1464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="123078144"/>
-        <c:axId val="123105664"/>
+        <c:axId val="114512640"/>
+        <c:axId val="114514560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123078144"/>
+        <c:axId val="114512640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123105664"/>
+        <c:crossAx val="114514560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1505,7 +1505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123105664"/>
+        <c:axId val="114514560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123078144"/>
+        <c:crossAx val="114512640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,11 +1715,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126199680"/>
-        <c:axId val="126084608"/>
+        <c:axId val="114626944"/>
+        <c:axId val="114628864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126199680"/>
+        <c:axId val="114626944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +1748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126084608"/>
+        <c:crossAx val="114628864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1756,7 +1756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126084608"/>
+        <c:axId val="114628864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126199680"/>
+        <c:crossAx val="114626944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1981,11 +1981,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126189568"/>
-        <c:axId val="126428672"/>
+        <c:axId val="114654592"/>
+        <c:axId val="114664960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126189568"/>
+        <c:axId val="114654592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +2013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126428672"/>
+        <c:crossAx val="114664960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2021,7 +2021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126428672"/>
+        <c:axId val="114664960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +2032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126189568"/>
+        <c:crossAx val="114654592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2231,11 +2231,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="122057472"/>
-        <c:axId val="86789120"/>
+        <c:axId val="113691264"/>
+        <c:axId val="113693440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122057472"/>
+        <c:axId val="113691264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86789120"/>
+        <c:crossAx val="113693440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2276,7 +2276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86789120"/>
+        <c:axId val="113693440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122057472"/>
+        <c:crossAx val="113691264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2486,11 +2486,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88772608"/>
-        <c:axId val="121709696"/>
+        <c:axId val="113718784"/>
+        <c:axId val="113720704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88772608"/>
+        <c:axId val="113718784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121709696"/>
+        <c:crossAx val="113720704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2532,7 +2532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121709696"/>
+        <c:axId val="113720704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,7 +2543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88772608"/>
+        <c:crossAx val="113718784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2757,11 +2757,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="60939264"/>
-        <c:axId val="122385152"/>
+        <c:axId val="113763072"/>
+        <c:axId val="113764992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60939264"/>
+        <c:axId val="113763072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,7 +2790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122385152"/>
+        <c:crossAx val="113764992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2798,7 +2798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122385152"/>
+        <c:axId val="113764992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,7 +2809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60939264"/>
+        <c:crossAx val="113763072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3440,7 +3440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -3624,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
@@ -4704,7 +4704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
@@ -5774,8 +5774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6064,6 +6064,12 @@
       <c r="Q8">
         <f t="shared" ref="Q8" si="4">AVERAGE(Q3:Q7)</f>
         <v>263.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f>H8/J8</f>
+        <v>2.0927007299270071</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
